--- a/BDD Glossary Template.xlsx
+++ b/BDD Glossary Template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71E1E705-13DD-4321-BCBC-140C5C00F512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfwma\Documents\FjerdeSemester\Sys\Braetspil\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AFDB8-DF41-475F-BE4C-D1B9C6778AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Noun in 
 business domain</t>
@@ -48,15 +53,6 @@
 explanation</t>
   </si>
   <si>
-    <t>Class name(s)</t>
-  </si>
-  <si>
-    <t>Attribute name (s)</t>
-  </si>
-  <si>
-    <t>varialble name(s)</t>
-  </si>
-  <si>
     <t>Related Method(s)</t>
   </si>
   <si>
@@ -69,13 +65,107 @@
   </si>
   <si>
     <t>Change by</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>MyCollection</t>
+  </si>
+  <si>
+    <t>Our program that is run in a browser on a pc or on an app on a mobiledevice.</t>
+  </si>
+  <si>
+    <t>A class that must have a library and can have a user</t>
+  </si>
+  <si>
+    <t>variable name(s)</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>A type of user that is not logged, and has limited options in the application</t>
+  </si>
+  <si>
+    <t>Someone who uses our program that is not logged in</t>
+  </si>
+  <si>
+    <t>A collection of information - in this case, the games</t>
+  </si>
+  <si>
+    <t>The class that contains our games</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>search()</t>
+  </si>
+  <si>
+    <t>A user can search for games and/or users</t>
+  </si>
+  <si>
+    <t>Someone who uses our program that is logged in</t>
+  </si>
+  <si>
+    <t>A user that is logged in</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>A list that is connected to a user</t>
+  </si>
+  <si>
+    <t>A list that is connected to a user, which can have a game. A user MUST have a collection in our US1 and 2</t>
+  </si>
+  <si>
+    <t>myCollection</t>
+  </si>
+  <si>
+    <t>addGame()
+removeGame()</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Board game</t>
+  </si>
+  <si>
+    <t>A board game that is registered in our api</t>
+  </si>
+  <si>
+    <t>Board game library</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,17 +202,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -140,6 +238,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -155,7 +287,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B3BF80C-3A7A-4268-AE7A-6D450D17C585}" name="Tabel3" displayName="Tabel3" ref="A1:K55" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6B3BF80C-3A7A-4268-AE7A-6D450D17C585}" name="Tabel3" displayName="Tabel3" ref="A1:K55" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:K55" xr:uid="{6B3BF80C-3A7A-4268-AE7A-6D450D17C585}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -170,17 +302,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B00BD30E-DAF6-4C56-91DC-91F3B84BCEA2}" name="Noun in _x000a_business domain"/>
-    <tableColumn id="2" xr3:uid="{5013BDF8-CAF0-4CF9-AC82-CC57A1C13D66}" name="Noun business_x000a_explanation"/>
-    <tableColumn id="3" xr3:uid="{BF3A81D4-5030-4681-AFF6-6278CE9CCA35}" name="Noun in code"/>
-    <tableColumn id="4" xr3:uid="{FE091478-C212-468B-8D3F-C186E873F4F3}" name="Noun code_x000a_explanation"/>
-    <tableColumn id="5" xr3:uid="{2FDE2B32-F74A-4933-B0C1-7F4855917712}" name="Class name(s)"/>
-    <tableColumn id="6" xr3:uid="{0DF98818-11CE-4B2D-94F5-285DE1930D5C}" name="Attribute name (s)"/>
-    <tableColumn id="7" xr3:uid="{B5F785CA-45B0-453E-810D-EE9BC11F77BA}" name="varialble name(s)"/>
-    <tableColumn id="8" xr3:uid="{E905B6F9-CF1D-4049-8E1F-D5ED573CEB29}" name="Related Method(s)"/>
-    <tableColumn id="9" xr3:uid="{04938D53-4B5F-4EB1-B84C-BE635A5420F0}" name="Related Method(s)_x000a_comment"/>
-    <tableColumn id="10" xr3:uid="{FD5F4CD5-9FCA-4762-9782-9573650AE7BC}" name="last change _x000a_date-time"/>
-    <tableColumn id="11" xr3:uid="{8C4E82D2-892C-44B4-B7E0-0B5F827B270A}" name="Change by"/>
+    <tableColumn id="1" xr3:uid="{B00BD30E-DAF6-4C56-91DC-91F3B84BCEA2}" name="Noun in _x000a_business domain" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5013BDF8-CAF0-4CF9-AC82-CC57A1C13D66}" name="Noun business_x000a_explanation" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{BF3A81D4-5030-4681-AFF6-6278CE9CCA35}" name="Noun in code" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FE091478-C212-468B-8D3F-C186E873F4F3}" name="Noun code_x000a_explanation" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{2FDE2B32-F74A-4933-B0C1-7F4855917712}" name="Class" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{0DF98818-11CE-4B2D-94F5-285DE1930D5C}" name="Attribute" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{B5F785CA-45B0-453E-810D-EE9BC11F77BA}" name="variable name(s)" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E905B6F9-CF1D-4049-8E1F-D5ED573CEB29}" name="Related Method(s)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{04938D53-4B5F-4EB1-B84C-BE635A5420F0}" name="Related Method(s)_x000a_comment" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{FD5F4CD5-9FCA-4762-9782-9573650AE7BC}" name="last change _x000a_date-time" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{8C4E82D2-892C-44B4-B7E0-0B5F827B270A}" name="Change by" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,61 +635,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" customHeight="1">
+    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -569,29 +833,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Initials xmlns="c0e5fb51-1935-4c6d-9406-a902382e0f74" xsi:nil="true"/>
-    <Indhold xmlns="c0e5fb51-1935-4c6d-9406-a902382e0f74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0e5fb51-1935-4c6d-9406-a902382e0f74">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2715d892-49d8-4e29-b568-a68106c692dc" xsi:nil="true"/>
-    <Semester xmlns="c0e5fb51-1935-4c6d-9406-a902382e0f74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100410634BCD20E49458431F09DCB870F2A" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d7d6c7a967e06422a3c5ffb391d3f3c8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c0e5fb51-1935-4c6d-9406-a902382e0f74" xmlns:ns3="2715d892-49d8-4e29-b568-a68106c692dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31c71c087eb5a0c23ea4f58dbc16aa8e" ns2:_="" ns3:_="">
     <xsd:import namespace="c0e5fb51-1935-4c6d-9406-a902382e0f74"/>
@@ -822,14 +1063,63 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Initials xmlns="c0e5fb51-1935-4c6d-9406-a902382e0f74" xsi:nil="true"/>
+    <Indhold xmlns="c0e5fb51-1935-4c6d-9406-a902382e0f74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c0e5fb51-1935-4c6d-9406-a902382e0f74">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2715d892-49d8-4e29-b568-a68106c692dc" xsi:nil="true"/>
+    <Semester xmlns="c0e5fb51-1935-4c6d-9406-a902382e0f74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BD2AAF0-109F-416A-B533-E6F48967DC88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA3D0DD1-4A8C-4382-99DE-35D2781A027A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c0e5fb51-1935-4c6d-9406-a902382e0f74"/>
+    <ds:schemaRef ds:uri="2715d892-49d8-4e29-b568-a68106c692dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21619D3C-633C-45A0-BAE1-8C782966729A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21619D3C-633C-45A0-BAE1-8C782966729A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA3D0DD1-4A8C-4382-99DE-35D2781A027A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BD2AAF0-109F-416A-B533-E6F48967DC88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c0e5fb51-1935-4c6d-9406-a902382e0f74"/>
+    <ds:schemaRef ds:uri="2715d892-49d8-4e29-b568-a68106c692dc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>